--- a/assets/Rivers in the world.xlsx
+++ b/assets/Rivers in the world.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10968021_polimi_it/Documents/Documenti/GitHub/lcg2425-03-kiara04-c/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_D2EEC711E1DE8F8465611D2D13ED19C291D61E55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{763FB888-E202-45C2-A218-8EA7A72D48EC}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_D2EEC711E1DE8F8465611D2D13ED19C291D61E55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC5AEBE9-338B-46E1-A563-AF6D96DAD3E4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Description" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$L$1:$L$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$K$1:$K$101</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
@@ -860,10 +860,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3698,9 +3694,9 @@
   </sheetPr>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4090,449 +4086,449 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="D11" s="1">
-        <v>6575</v>
+        <v>2170</v>
       </c>
       <c r="E11" s="1">
-        <v>7050000</v>
+        <v>413710</v>
       </c>
       <c r="F11" s="1">
-        <v>209000</v>
+        <v>13159</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1">
-        <v>1100</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K11" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L11" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="D12" s="1">
-        <v>3650</v>
+        <v>1850</v>
       </c>
       <c r="E12" s="1">
-        <v>967059</v>
+        <v>375000</v>
       </c>
       <c r="F12" s="1">
-        <v>13700</v>
+        <v>1200</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1">
         <v>30</v>
       </c>
-      <c r="J12" s="1">
-        <v>24</v>
-      </c>
-      <c r="K12" s="1">
-        <v>28</v>
-      </c>
       <c r="L12" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="D13" s="1">
-        <v>3650</v>
+        <v>1800</v>
       </c>
       <c r="E13" s="1">
-        <v>967059</v>
+        <v>415000</v>
       </c>
       <c r="F13" s="1">
-        <v>13700</v>
+        <v>170</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I13" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K13" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="1">
+        <v>415000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>170</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1">
         <v>20</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3379</v>
-      </c>
-      <c r="E14" s="1">
-        <v>371042</v>
-      </c>
-      <c r="F14" s="1">
-        <v>8400</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="1">
-        <v>60</v>
-      </c>
-      <c r="J14" s="1">
-        <v>24</v>
-      </c>
       <c r="K14" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L14" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>3379</v>
+        <v>1450</v>
       </c>
       <c r="E15" s="1">
-        <v>850000</v>
+        <v>3254555</v>
       </c>
       <c r="F15" s="1">
-        <v>31000</v>
+        <v>2800</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I15" s="1">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K15" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1">
-        <v>2250</v>
+        <v>1450</v>
       </c>
       <c r="E16" s="1">
-        <v>691000</v>
+        <v>3254555</v>
       </c>
       <c r="F16" s="1">
-        <v>29060</v>
+        <v>2800</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I16" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K16" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L16" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="D17" s="1">
-        <v>2100</v>
+        <v>1360</v>
       </c>
       <c r="E17" s="1">
-        <v>487103</v>
+        <v>242500</v>
       </c>
       <c r="F17" s="1">
-        <v>12849</v>
+        <v>1250</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I17" s="1">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1">
         <v>20</v>
       </c>
-      <c r="J17" s="1">
-        <v>24</v>
-      </c>
       <c r="K17" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L17" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1">
-        <v>2100</v>
+        <v>3750</v>
       </c>
       <c r="E18" s="1">
-        <v>487103</v>
+        <v>1061469</v>
       </c>
       <c r="F18" s="1">
-        <v>12849</v>
+        <v>767</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="I18" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K18" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="1">
-        <v>26</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1">
-        <v>1980</v>
+        <v>3600</v>
       </c>
       <c r="E19" s="1">
-        <v>531250</v>
+        <v>879790</v>
       </c>
       <c r="F19" s="1">
-        <v>9600</v>
+        <v>1350</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I19" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K19" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L19" s="1">
-        <v>26</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1">
-        <v>1580</v>
+        <v>2349</v>
       </c>
       <c r="E20" s="1">
-        <v>200000</v>
+        <v>505000</v>
       </c>
       <c r="F20" s="1">
-        <v>14130</v>
+        <v>800</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I20" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K20" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L20" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D21" s="1">
-        <v>1370</v>
+        <v>2330</v>
       </c>
       <c r="E21" s="1">
-        <v>141830</v>
+        <v>637137</v>
       </c>
       <c r="F21" s="1">
-        <v>5300</v>
+        <v>642</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I21" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K21" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1">
-        <v>1300</v>
+        <v>6575</v>
       </c>
       <c r="E22" s="1">
-        <v>133630</v>
+        <v>7050000</v>
       </c>
       <c r="F22" s="1">
-        <v>4055</v>
+        <v>209000</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="1">
-        <v>9</v>
+        <v>1100</v>
       </c>
       <c r="J22" s="1">
         <v>24</v>
@@ -4546,525 +4542,525 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D23" s="1">
-        <v>4350</v>
+        <v>3650</v>
       </c>
       <c r="E23" s="1">
-        <v>795000</v>
+        <v>967059</v>
       </c>
       <c r="F23" s="1">
-        <v>16000</v>
+        <v>13700</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I23" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J23" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K23" s="1">
         <v>28</v>
       </c>
       <c r="L23" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="D24" s="1">
-        <v>2170</v>
+        <v>3650</v>
       </c>
       <c r="E24" s="1">
-        <v>413710</v>
+        <v>967059</v>
       </c>
       <c r="F24" s="1">
-        <v>13159</v>
+        <v>13700</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I24" s="1">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J24" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K24" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1">
-        <v>1850</v>
+        <v>3379</v>
       </c>
       <c r="E25" s="1">
-        <v>375000</v>
+        <v>371042</v>
       </c>
       <c r="F25" s="1">
-        <v>1200</v>
+        <v>8400</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I25" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J25" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K25" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L25" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1">
-        <v>1800</v>
+        <v>3379</v>
       </c>
       <c r="E26" s="1">
-        <v>415000</v>
+        <v>850000</v>
       </c>
       <c r="F26" s="1">
-        <v>170</v>
+        <v>31000</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I26" s="1">
+        <v>50</v>
+      </c>
+      <c r="J26" s="1">
         <v>24</v>
       </c>
-      <c r="J26" s="1">
-        <v>20</v>
-      </c>
       <c r="K26" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L26" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="D27" s="1">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="E27" s="1">
-        <v>415000</v>
+        <v>691000</v>
       </c>
       <c r="F27" s="1">
-        <v>170</v>
+        <v>29060</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I27" s="1">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
         <v>24</v>
       </c>
-      <c r="J27" s="1">
-        <v>20</v>
-      </c>
       <c r="K27" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D28" s="1">
-        <v>1450</v>
+        <v>2100</v>
       </c>
       <c r="E28" s="1">
-        <v>3254555</v>
+        <v>487103</v>
       </c>
       <c r="F28" s="1">
-        <v>2800</v>
+        <v>12849</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I28" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K28" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L28" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D29" s="1">
-        <v>1450</v>
+        <v>2100</v>
       </c>
       <c r="E29" s="1">
-        <v>3254555</v>
+        <v>487103</v>
       </c>
       <c r="F29" s="1">
-        <v>2800</v>
+        <v>12849</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I29" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J29" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K29" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L29" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="D30" s="1">
-        <v>1360</v>
+        <v>1980</v>
       </c>
       <c r="E30" s="1">
-        <v>242500</v>
+        <v>531250</v>
       </c>
       <c r="F30" s="1">
-        <v>1250</v>
+        <v>9600</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I30" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J30" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K30" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="D31" s="1">
-        <v>4700</v>
+        <v>1580</v>
       </c>
       <c r="E31" s="1">
-        <v>4014500</v>
+        <v>200000</v>
       </c>
       <c r="F31" s="1">
-        <v>41300</v>
+        <v>14130</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="1">
         <v>15</v>
       </c>
-      <c r="I31" s="1">
-        <v>40</v>
-      </c>
       <c r="J31" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K31" s="1">
+        <v>28</v>
+      </c>
+      <c r="L31" s="1">
         <v>26</v>
-      </c>
-      <c r="L31" s="1">
-        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>224</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D32" s="1">
-        <v>3750</v>
+        <v>1370</v>
       </c>
       <c r="E32" s="1">
-        <v>1061469</v>
+        <v>141830</v>
       </c>
       <c r="F32" s="1">
-        <v>767</v>
+        <v>5300</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="I32" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J32" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K32" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L32" s="1">
-        <v>22.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <v>90</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="1">
+        <v>133630</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4055</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3600</v>
-      </c>
-      <c r="E33" s="1">
-        <v>879790</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1350</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="I33" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J33" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K33" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L33" s="1">
-        <v>22.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D34" s="1">
-        <v>3150</v>
+        <v>4350</v>
       </c>
       <c r="E34" s="1">
-        <v>641000</v>
+        <v>795000</v>
       </c>
       <c r="F34" s="1">
-        <v>2850</v>
+        <v>16000</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I34" s="1">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="J34" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K34" s="1">
+        <v>28</v>
+      </c>
+      <c r="L34" s="1">
         <v>25</v>
-      </c>
-      <c r="L34" s="1">
-        <v>22.5</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4700</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4014500</v>
+      </c>
+      <c r="F35" s="1">
+        <v>41300</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="1">
+        <v>40</v>
+      </c>
+      <c r="J35" s="1">
+        <v>22</v>
+      </c>
+      <c r="K35" s="1">
         <v>26</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2990</v>
-      </c>
-      <c r="E35" s="1">
-        <v>271914</v>
-      </c>
-      <c r="F35" s="1">
-        <v>16300</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="1">
-        <v>15</v>
-      </c>
-      <c r="J35" s="1">
-        <v>20</v>
-      </c>
-      <c r="K35" s="1">
-        <v>25</v>
-      </c>
       <c r="L35" s="1">
-        <v>22.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D36" s="1">
-        <v>2734</v>
+        <v>3150</v>
       </c>
       <c r="E36" s="1">
-        <v>1390000</v>
+        <v>641000</v>
       </c>
       <c r="F36" s="1">
-        <v>4900</v>
+        <v>2850</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I36" s="1">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="J36" s="1">
         <v>20</v>
@@ -5078,31 +5074,31 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="D37" s="1">
-        <v>1550</v>
+        <v>2990</v>
       </c>
       <c r="E37" s="1">
-        <v>257438</v>
+        <v>271914</v>
       </c>
       <c r="F37" s="1">
-        <v>7150</v>
+        <v>16300</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I37" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J37" s="1">
         <v>20</v>
@@ -5116,98 +5112,98 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <v>32</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2734</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1390000</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="1">
-        <v>3960</v>
-      </c>
-      <c r="E38" s="1">
-        <v>651335</v>
-      </c>
-      <c r="F38" s="1">
-        <v>19800</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="I38" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J38" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K38" s="1">
         <v>25</v>
       </c>
       <c r="L38" s="1">
-        <v>20</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="D39" s="1">
-        <v>3057</v>
+        <v>1550</v>
       </c>
       <c r="E39" s="1">
-        <v>558000</v>
+        <v>257438</v>
       </c>
       <c r="F39" s="1">
-        <v>160</v>
+        <v>7150</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I39" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J39" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K39" s="1">
         <v>25</v>
       </c>
       <c r="L39" s="1">
-        <v>20</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="D40" s="1">
-        <v>2525</v>
+        <v>3960</v>
       </c>
       <c r="E40" s="1">
-        <v>1000000</v>
+        <v>651335</v>
       </c>
       <c r="F40" s="1">
-        <v>16000</v>
+        <v>19800</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>56</v>
@@ -5216,7 +5212,7 @@
         <v>23</v>
       </c>
       <c r="I40" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J40" s="1">
         <v>15</v>
@@ -5230,37 +5226,37 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>225</v>
+        <v>88</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D41" s="1">
-        <v>2349</v>
+        <v>3057</v>
       </c>
       <c r="E41" s="1">
-        <v>505000</v>
+        <v>558000</v>
       </c>
       <c r="F41" s="1">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I41" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J41" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K41" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L41" s="1">
         <v>20</v>
@@ -5268,37 +5264,37 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D42" s="1">
-        <v>2330</v>
+        <v>2525</v>
       </c>
       <c r="E42" s="1">
-        <v>637137</v>
+        <v>1000000</v>
       </c>
       <c r="F42" s="1">
-        <v>642</v>
+        <v>16000</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I42" s="1">
         <v>20</v>
       </c>
       <c r="J42" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K42" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L42" s="1">
         <v>20</v>
@@ -5306,69 +5302,69 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D43" s="1">
-        <v>4880</v>
+        <v>6275</v>
       </c>
       <c r="E43" s="1">
-        <v>3100000</v>
+        <v>2980000</v>
       </c>
       <c r="F43" s="1">
-        <v>25700</v>
+        <v>16200</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I43" s="1">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="J43" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K43" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L43" s="1">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="D44" s="1">
-        <v>6275</v>
+        <v>1450</v>
       </c>
       <c r="E44" s="1">
-        <v>2980000</v>
+        <v>395000</v>
       </c>
       <c r="F44" s="1">
-        <v>16200</v>
+        <v>500</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I44" s="1">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="J44" s="1">
         <v>10</v>
@@ -5382,37 +5378,37 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="D45" s="1">
-        <v>1838</v>
+        <v>1416</v>
       </c>
       <c r="E45" s="1">
-        <v>385000</v>
+        <v>2638</v>
       </c>
       <c r="F45" s="1">
-        <v>4900</v>
+        <v>2417</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I45" s="1">
+        <v>9</v>
+      </c>
+      <c r="J45" s="1">
         <v>10</v>
       </c>
-      <c r="J45" s="1">
-        <v>15</v>
-      </c>
       <c r="K45" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L45" s="1">
         <v>17.5</v>
@@ -5420,31 +5416,31 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D46" s="1">
-        <v>1450</v>
+        <v>1072</v>
       </c>
       <c r="E46" s="1">
-        <v>395000</v>
+        <v>102000</v>
       </c>
       <c r="F46" s="1">
-        <v>500</v>
+        <v>285</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I46" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J46" s="1">
         <v>10</v>
@@ -5458,75 +5454,75 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D47" s="1">
-        <v>1416</v>
+        <v>4880</v>
       </c>
       <c r="E47" s="1">
-        <v>2638</v>
+        <v>3100000</v>
       </c>
       <c r="F47" s="1">
-        <v>2417</v>
+        <v>25700</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I47" s="1">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="J47" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K47" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L47" s="1">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="D48" s="1">
-        <v>1072</v>
+        <v>1838</v>
       </c>
       <c r="E48" s="1">
-        <v>102000</v>
+        <v>385000</v>
       </c>
       <c r="F48" s="1">
-        <v>285</v>
+        <v>4900</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I48" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J48" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K48" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L48" s="1">
         <v>17.5</v>
@@ -5534,69 +5530,69 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D49" s="1">
-        <v>6300</v>
+        <v>3180</v>
       </c>
       <c r="E49" s="1">
-        <v>1808500</v>
+        <v>1155000</v>
       </c>
       <c r="F49" s="1">
-        <v>31900</v>
+        <v>6000</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I49" s="1">
-        <v>700</v>
+        <v>10</v>
       </c>
       <c r="J49" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K49" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L49" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="D50" s="1">
-        <v>3180</v>
+        <v>2860</v>
       </c>
       <c r="E50" s="1">
-        <v>1155000</v>
+        <v>142936</v>
       </c>
       <c r="F50" s="1">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I50" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J50" s="1">
         <v>10</v>
@@ -5610,31 +5606,31 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="D51" s="1">
-        <v>2860</v>
+        <v>2620</v>
       </c>
       <c r="E51" s="1">
-        <v>142936</v>
+        <v>534739</v>
       </c>
       <c r="F51" s="1">
-        <v>3800</v>
+        <v>2560</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I51" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J51" s="1">
         <v>10</v>
@@ -5648,31 +5644,31 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D52" s="1">
-        <v>2620</v>
+        <v>1007</v>
       </c>
       <c r="E52" s="1">
-        <v>534739</v>
+        <v>80900</v>
       </c>
       <c r="F52" s="1">
-        <v>2560</v>
+        <v>430</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I52" s="1">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J52" s="1">
         <v>10</v>
@@ -5686,25 +5682,25 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D53" s="1">
-        <v>1007</v>
+        <v>925</v>
       </c>
       <c r="E53" s="1">
-        <v>80900</v>
+        <v>36577</v>
       </c>
       <c r="F53" s="1">
-        <v>430</v>
+        <v>357</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>64</v>
@@ -5724,31 +5720,31 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="1">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="E54" s="1">
-        <v>36577</v>
+        <v>85262</v>
       </c>
       <c r="F54" s="1">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I54" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J54" s="1">
         <v>10</v>
@@ -5762,31 +5758,31 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D55" s="1">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="E55" s="1">
-        <v>85262</v>
+        <v>97280</v>
       </c>
       <c r="F55" s="1">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I55" s="1">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="J55" s="1">
         <v>10</v>
@@ -5800,31 +5796,31 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D56" s="1">
-        <v>897</v>
+        <v>777</v>
       </c>
       <c r="E56" s="1">
-        <v>97280</v>
+        <v>78500</v>
       </c>
       <c r="F56" s="1">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I56" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J56" s="1">
         <v>10</v>
@@ -5838,31 +5834,31 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D57" s="1">
-        <v>777</v>
+        <v>652</v>
       </c>
       <c r="E57" s="1">
-        <v>78500</v>
+        <v>74000</v>
       </c>
       <c r="F57" s="1">
-        <v>470</v>
+        <v>1500</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I57" s="1">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="J57" s="1">
         <v>10</v>
@@ -5876,7 +5872,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>144</v>
@@ -5914,31 +5910,31 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D59" s="1">
-        <v>652</v>
+        <v>367</v>
       </c>
       <c r="E59" s="1">
-        <v>74000</v>
+        <v>1191</v>
       </c>
       <c r="F59" s="1">
-        <v>1500</v>
+        <v>546</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I59" s="1">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="J59" s="1">
         <v>10</v>
@@ -5952,69 +5948,69 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="D60" s="1">
-        <v>367</v>
+        <v>2000</v>
       </c>
       <c r="E60" s="1">
-        <v>1191</v>
+        <v>668217</v>
       </c>
       <c r="F60" s="1">
-        <v>546</v>
+        <v>7420</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I60" s="1">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="J60" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K60" s="1">
         <v>20</v>
       </c>
       <c r="L60" s="1">
-        <v>15</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="D61" s="1">
-        <v>2000</v>
+        <v>1345</v>
       </c>
       <c r="E61" s="1">
-        <v>668217</v>
+        <v>219000</v>
       </c>
       <c r="F61" s="1">
-        <v>7420</v>
+        <v>500</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I61" s="1">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J61" s="1">
         <v>5</v>
@@ -6028,31 +6024,31 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="D62" s="1">
-        <v>1345</v>
+        <v>1053</v>
       </c>
       <c r="E62" s="1">
-        <v>219000</v>
+        <v>98800</v>
       </c>
       <c r="F62" s="1">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I62" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J62" s="1">
         <v>5</v>
@@ -6066,31 +6062,31 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="D63" s="1">
-        <v>1053</v>
+        <v>1020</v>
       </c>
       <c r="E63" s="1">
-        <v>98800</v>
+        <v>117054</v>
       </c>
       <c r="F63" s="1">
-        <v>160</v>
+        <v>802</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I63" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J63" s="1">
         <v>5</v>
@@ -6104,40 +6100,40 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="D64" s="1">
-        <v>1020</v>
+        <v>6300</v>
       </c>
       <c r="E64" s="1">
-        <v>117054</v>
+        <v>1808500</v>
       </c>
       <c r="F64" s="1">
-        <v>802</v>
+        <v>31900</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I64" s="1">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="J64" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K64" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L64" s="1">
-        <v>12.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -6598,37 +6594,37 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D77" s="1">
-        <v>3058</v>
+        <v>1115</v>
       </c>
       <c r="E77" s="1">
-        <v>1344200</v>
+        <v>277100</v>
       </c>
       <c r="F77" s="1">
-        <v>10400</v>
+        <v>3513</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I77" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="K77" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L77" s="1">
         <v>5</v>
@@ -6636,69 +6632,69 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D78" s="1">
-        <v>2575</v>
+        <v>3190</v>
       </c>
       <c r="E78" s="1">
-        <v>1070000</v>
+        <v>832700</v>
       </c>
       <c r="F78" s="1">
-        <v>2370</v>
+        <v>6430</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I78" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="K78" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L78" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="D79" s="1">
-        <v>1375</v>
+        <v>3058</v>
       </c>
       <c r="E79" s="1">
-        <v>23300</v>
+        <v>1344200</v>
       </c>
       <c r="F79" s="1">
-        <v>348</v>
+        <v>10400</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I79" s="1">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
@@ -6712,37 +6708,37 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
+        <v>36</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D80" s="1">
-        <v>1115</v>
+        <v>2575</v>
       </c>
       <c r="E80" s="1">
-        <v>277100</v>
+        <v>1070000</v>
       </c>
       <c r="F80" s="1">
-        <v>3513</v>
+        <v>2370</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I80" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J80" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="K80" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L80" s="1">
         <v>5</v>
@@ -6750,69 +6746,69 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D81" s="1">
-        <v>5410</v>
+        <v>1375</v>
       </c>
       <c r="E81" s="1">
-        <v>2990000</v>
+        <v>23300</v>
       </c>
       <c r="F81" s="1">
-        <v>12800</v>
+        <v>348</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I81" s="1">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J81" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="K81" s="1">
         <v>10</v>
       </c>
       <c r="L81" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="1">
+        <v>5410</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2990000</v>
+      </c>
+      <c r="F82" s="1">
+        <v>12800</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" s="1">
         <v>50</v>
-      </c>
-      <c r="D82" s="1">
-        <v>4241</v>
-      </c>
-      <c r="E82" s="1">
-        <v>1740000</v>
-      </c>
-      <c r="F82" s="1">
-        <v>9700</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I82" s="1">
-        <v>40</v>
       </c>
       <c r="J82" s="1">
         <v>-5</v>
@@ -6826,31 +6822,31 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D83" s="1">
-        <v>3645</v>
+        <v>4241</v>
       </c>
       <c r="E83" s="1">
-        <v>1360000</v>
+        <v>1740000</v>
       </c>
       <c r="F83" s="1">
-        <v>8060</v>
+        <v>9700</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I83" s="1">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="J83" s="1">
         <v>-5</v>
@@ -6864,37 +6860,37 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D84" s="1">
-        <v>3190</v>
+        <v>3645</v>
       </c>
       <c r="E84" s="1">
-        <v>832700</v>
+        <v>1360000</v>
       </c>
       <c r="F84" s="1">
-        <v>6430</v>
+        <v>8060</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I84" s="1">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="J84" s="1">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="K84" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L84" s="1">
         <v>2.5</v>
@@ -7547,6 +7543,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="K1:K101" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L101">
+      <sortCondition descending="1" ref="K1:K101"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
